--- a/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
+++ b/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>SCRIPT/D73P29A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D79P21A/enter12.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D35P21A/enter12.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D39P21A/enter12.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D41P21A/enter12.ssb</t>
   </si>
 </sst>
 </file>
@@ -656,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,6 +1024,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="B20" s="11">
         <v>230</v>
       </c>
@@ -1026,6 +1041,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="B21" s="11">
         <v>234</v>
       </c>
@@ -1040,6 +1058,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="B22" s="11">
         <v>253</v>
       </c>
@@ -1054,6 +1075,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B23" s="11">
         <v>261</v>
       </c>
@@ -1193,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>364</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>368</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>379</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="51" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>390</v>
       </c>
@@ -1249,7 +1273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>394</v>
       </c>
@@ -1263,7 +1287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>405</v>
       </c>
@@ -1277,7 +1301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>417</v>
       </c>
@@ -1291,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
         <v>421</v>
       </c>
@@ -1305,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
         <v>432</v>
       </c>
@@ -1319,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>444</v>
       </c>
@@ -1333,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>448</v>
       </c>
@@ -1347,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>458</v>
       </c>
@@ -1361,7 +1385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>470</v>
       </c>
@@ -1375,7 +1399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>474</v>
       </c>
@@ -1389,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>485</v>
       </c>
@@ -1403,7 +1427,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="B48" s="7">
         <v>497</v>
       </c>

--- a/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
+++ b/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>SCRIPT/D41P21A/enter12.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D42P21A/enter12.ssb</t>
   </si>
 </sst>
 </file>
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,6 +1095,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="B24" s="11">
         <v>265</v>
       </c>
@@ -1106,6 +1112,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="B25" s="11">
         <v>284</v>
       </c>

--- a/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
+++ b/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>SCRIPT/D42P21A/enter12.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D45P21A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D57P21A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D56P21A/enter02.ssb</t>
   </si>
 </sst>
 </file>
@@ -671,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,6 +1138,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="B26" s="11">
         <v>297</v>
       </c>
@@ -1143,6 +1155,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="B27" s="11">
         <v>317</v>
       </c>
@@ -1157,6 +1172,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B28" s="11">
         <v>326</v>
       </c>

--- a/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
+++ b/Texts/Выборы в прочих местах/Выходы из переходных мест.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>SCRIPT/D56P21A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D46P21A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D48P21A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D51P21A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D53P21A/enter02.ssb</t>
   </si>
 </sst>
 </file>
@@ -680,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,6 +1201,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="B29" s="11">
         <v>332</v>
       </c>
@@ -1203,6 +1218,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B30" s="11">
         <v>340</v>
       </c>
@@ -1217,6 +1235,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="B31" s="11">
         <v>344</v>
       </c>
@@ -1231,6 +1252,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B32" s="11">
         <v>355</v>
       </c>
